--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -7,16 +7,18 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteration-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Iteration-3" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteration-4" sheetId="4" r:id="rId4"/>
+    <sheet name="Iteration-5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>STORY</t>
   </si>
@@ -78,42 +80,9 @@
     <t>#12</t>
   </si>
   <si>
-    <t>view the list of students according to the enrolled rooms.</t>
-  </si>
-  <si>
-    <t>keep track of lost and damaged material</t>
-  </si>
-  <si>
-    <t>enter the fee of the room according to the type of the room</t>
-  </si>
-  <si>
-    <t>display the students’ debts and payment history</t>
-  </si>
-  <si>
-    <t>add new dormitories and rooms to the list</t>
-  </si>
-  <si>
-    <t>display accomodation time of students</t>
-  </si>
-  <si>
-    <t>search available rooms</t>
-  </si>
-  <si>
-    <t>logo design</t>
-  </si>
-  <si>
-    <t>view students' information</t>
-  </si>
-  <si>
     <t>#13</t>
   </si>
   <si>
-    <t>update students' information, rooms, dorms etc.</t>
-  </si>
-  <si>
-    <t>filter students with respect to name, surname, student id</t>
-  </si>
-  <si>
     <t>Nazlı Karalar</t>
   </si>
   <si>
@@ -153,9 +122,6 @@
     <t>WEEK2 SUM</t>
   </si>
   <si>
-    <t xml:space="preserve">home screen design </t>
-  </si>
-  <si>
     <t>Design GUI (main page)</t>
   </si>
   <si>
@@ -186,24 +152,12 @@
     <t>Enter the fee of the room types</t>
   </si>
   <si>
-    <t>Logo design</t>
-  </si>
-  <si>
     <t>Not Completed</t>
   </si>
   <si>
     <t xml:space="preserve">Create DB tables for students </t>
   </si>
   <si>
-    <t>add student’s personal data</t>
-  </si>
-  <si>
-    <t>remove student’s personal data</t>
-  </si>
-  <si>
-    <t>#14</t>
-  </si>
-  <si>
     <t>#7.2</t>
   </si>
   <si>
@@ -229,13 +183,55 @@
   </si>
   <si>
     <t>WEEK5</t>
+  </si>
+  <si>
+    <t>Add student’s personal data</t>
+  </si>
+  <si>
+    <t>Remove student’s personal data</t>
+  </si>
+  <si>
+    <t>View the list of students according to the enrolled rooms.</t>
+  </si>
+  <si>
+    <t>Keep track of lost and damaged material</t>
+  </si>
+  <si>
+    <t>Enter the fee of the room according to the type of the room</t>
+  </si>
+  <si>
+    <t>Display the students’ debts and payment history</t>
+  </si>
+  <si>
+    <t>Add new dormitories and rooms to the list</t>
+  </si>
+  <si>
+    <t>Display accomodation time of students</t>
+  </si>
+  <si>
+    <t>Filter students with respect to name, surname, student id</t>
+  </si>
+  <si>
+    <t>Search available rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home screen design </t>
+  </si>
+  <si>
+    <t>View students' information</t>
+  </si>
+  <si>
+    <t>Update students' information, rooms, dorms etc.</t>
+  </si>
+  <si>
+    <t>DORMITORY MANAGEMENT SYSTEM (DMS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +261,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -542,9 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -553,7 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,12 +566,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF1FCBC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -607,7 +619,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$O$26:$T$26</c:f>
+              <c:f>'Iteration-1'!$O$26:$T$26</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -633,7 +645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$25:$T$25</c:f>
+              <c:f>'Iteration-1'!$O$25:$T$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -687,11 +699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51152896"/>
-        <c:axId val="100476608"/>
+        <c:axId val="133391360"/>
+        <c:axId val="87611008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51152896"/>
+        <c:axId val="133391360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100476608"/>
+        <c:crossAx val="87611008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100476608"/>
+        <c:axId val="87611008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,14 +732,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51152896"/>
+        <c:crossAx val="133391360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -772,6 +783,87 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="781049"/>
+          <a:ext cx="5476875" cy="1066801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F1FCBC"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1"/>
+            <a:t>Description:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DMS is a desktop application which enables dormitory managers to track students living in their dorms.They will be able to enter students' registrations including student's information (names, surnames, e-mails etc), residents' fees, debts and also they can define the room types and their prices. Besides, this program shows the room of the students and their start/end dates of staying in the dorm.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1064,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T28"/>
+  <dimension ref="B2:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,411 +1177,365 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
-        <v>34</v>
+    <row r="2" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="I12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="J14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="2">
-        <v>4</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="24" t="s">
-        <v>7</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
       <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="11" t="s">
+      <c r="I16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="24" t="s">
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="12">
-        <v>2</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="14">
-        <v>1</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="24" t="s">
-        <v>10</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="15">
-        <v>1</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="14">
-        <v>1</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>12</v>
-      </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="30" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="14">
-        <v>2</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="24" t="s">
-        <v>13</v>
+      <c r="J20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="29" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="6">
+        <f>SUM(L13:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="M21" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
       <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="17"/>
@@ -1499,60 +1545,53 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2">
         <v>3</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="6">
-        <f>SUM(L13:L22)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2">
-        <v>10</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4</v>
-      </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="30" t="s">
         <v>4</v>
       </c>
       <c r="O25">
@@ -1575,45 +1614,56 @@
       </c>
     </row>
     <row r="26" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="33"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35" t="s">
+      <c r="C26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="32">
         <v>4</v>
       </c>
-      <c r="O26" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="R26" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="S26" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="T26" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="3" t="s">
+      <c r="F26" s="32">
+        <v>10</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" s="17"/>
+      <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="4">
-        <f>SUM(F12:F25)</f>
-        <v>65</v>
-      </c>
+      <c r="F27" s="4">
+        <f>SUM(F14:F26)</f>
+        <v>61</v>
+      </c>
+      <c r="G27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C10:G10"/>
+  <mergeCells count="3">
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="I11:M11"/>
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1643,4 +1693,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>STORY</t>
   </si>
@@ -131,12 +131,6 @@
     <t>#1.2</t>
   </si>
   <si>
-    <t>#1.3</t>
-  </si>
-  <si>
-    <t>Add student</t>
-  </si>
-  <si>
     <t>Design GUI (add dorms and rooms)</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>Enter the fee of the room types</t>
   </si>
   <si>
-    <t>Not Completed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create DB tables for students </t>
   </si>
   <si>
@@ -225,13 +216,34 @@
   </si>
   <si>
     <t>DORMITORY MANAGEMENT SYSTEM (DMS)</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Product Backlog Items</t>
+  </si>
+  <si>
+    <t>Estimated Completion Time (hrs)</t>
+  </si>
+  <si>
+    <t>Actual Time Spend (hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>PROGRESS</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +283,24 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,12 +321,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -506,11 +552,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -551,14 +646,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -569,12 +662,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -617,9 +736,18 @@
           <c:tx>
             <c:v>Ideal Task Remaining</c:v>
           </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Iteration-1'!$O$26:$T$26</c:f>
+              <c:f>'Iteration-1'!$P$27:$U$27</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -645,7 +773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration-1'!$O$25:$T$25</c:f>
+              <c:f>'Iteration-1'!$P$26:$U$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -699,11 +827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133391360"/>
-        <c:axId val="87611008"/>
+        <c:axId val="133534720"/>
+        <c:axId val="88136448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133391360"/>
+        <c:axId val="133534720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87611008"/>
+        <c:crossAx val="88136448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -721,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87611008"/>
+        <c:axId val="88136448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,13 +860,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133391360"/>
+        <c:crossAx val="133534720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -758,15 +887,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1156,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T27"/>
+  <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,25 +1298,31 @@
     <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
@@ -1195,67 +1330,69 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I11" s="35" t="s">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="35" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="I12" s="20" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33"/>
+      <c r="J12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="K12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="L12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="M12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="N12" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
         <v>17</v>
       </c>
@@ -1271,56 +1408,66 @@
       <c r="G13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="H13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
@@ -1328,29 +1475,32 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="H15" s="44"/>
+      <c r="J15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="12">
+        <v>7</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -1358,29 +1508,32 @@
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="H16" s="44"/>
+      <c r="J16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
@@ -1388,29 +1541,32 @@
       <c r="F17" s="2">
         <v>6</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="H17" s="44"/>
+      <c r="J17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="15">
+        <v>4</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1418,29 +1574,34 @@
       <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
+      <c r="G18" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="44">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1448,59 +1609,62 @@
       <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="44"/>
+      <c r="J19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="27">
+        <v>1</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="G20" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="44">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="6">
+        <f>SUM(M13:M19)</f>
+        <v>21</v>
+      </c>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1508,26 +1672,17 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="6">
-        <f>SUM(L13:L20)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -1535,21 +1690,23 @@
       <c r="F22" s="2">
         <v>12</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="H22" s="44"/>
+      <c r="P22">
+        <v>65</v>
+      </c>
+      <c r="Q22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1557,33 +1714,42 @@
       <c r="F23" s="2">
         <v>4</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="H23" s="44"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="G24" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
@@ -1591,79 +1757,168 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="O25">
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="30">
+        <v>3</v>
+      </c>
+      <c r="F26" s="30">
+        <v>10</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="P26">
+        <f>F27</f>
         <v>65</v>
       </c>
-      <c r="P25">
+      <c r="Q26">
         <v>52</v>
       </c>
-      <c r="Q25">
+      <c r="R26">
         <v>39</v>
       </c>
-      <c r="R25">
+      <c r="S26">
         <v>26</v>
       </c>
-      <c r="S25">
+      <c r="T26">
         <v>13</v>
       </c>
-      <c r="T25">
+      <c r="U26">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="32">
-        <v>4</v>
-      </c>
-      <c r="F26" s="32">
-        <v>10</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="R26" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="T26" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27" s="17"/>
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="4">
         <f>SUM(F14:F26)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="P27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <f>P26-R35</f>
+        <v>44</v>
+      </c>
+      <c r="Q28">
+        <f>P26-Q35</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <f>Q26-P28</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="43"/>
+    </row>
+    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="40">
+        <v>8</v>
+      </c>
+      <c r="R31" s="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="41">
+        <v>4</v>
+      </c>
+      <c r="R32" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="40">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="41">
+        <v>2</v>
+      </c>
+      <c r="R33" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="40">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="41">
+        <v>3</v>
+      </c>
+      <c r="R34" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P35" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Q31:Q34)</f>
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <f>SUM(R31:R34)</f>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="D2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -662,12 +662,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,6 +684,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +713,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -781,7 +781,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>39</c:v>
@@ -806,14 +806,29 @@
           <c:tx>
             <c:v>Actual Tasks Remaining</c:v>
           </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Iteration-1'!$P$25:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -827,11 +842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133534720"/>
-        <c:axId val="88136448"/>
+        <c:axId val="192754048"/>
+        <c:axId val="192755584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133534720"/>
+        <c:axId val="192754048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88136448"/>
+        <c:crossAx val="192755584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88136448"/>
+        <c:axId val="192755584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133534720"/>
+        <c:crossAx val="192754048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1287,39 +1302,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1358,22 +1373,22 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="33"/>
       <c r="J12" s="20" t="s">
         <v>17</v>
@@ -1423,7 +1438,7 @@
       <c r="M13" s="2">
         <v>4</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1440,10 +1455,10 @@
       <c r="F14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="42">
         <v>0.7</v>
       </c>
       <c r="J14" s="23" t="s">
@@ -1458,7 +1473,7 @@
       <c r="M14" s="2">
         <v>2</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1478,7 +1493,7 @@
       <c r="G15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="42"/>
       <c r="J15" s="24" t="s">
         <v>36</v>
       </c>
@@ -1491,7 +1506,7 @@
       <c r="M15" s="12">
         <v>7</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1511,7 +1526,7 @@
       <c r="G16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="42"/>
       <c r="J16" s="24" t="s">
         <v>32</v>
       </c>
@@ -1524,7 +1539,7 @@
       <c r="M16" s="14">
         <v>1</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1544,7 +1559,7 @@
       <c r="G17" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="42"/>
       <c r="J17" s="24" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1572,7 @@
       <c r="M17" s="15">
         <v>4</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1574,10 +1589,10 @@
       <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="42">
         <v>1</v>
       </c>
       <c r="J18" s="24" t="s">
@@ -1592,7 +1607,7 @@
       <c r="M18" s="14">
         <v>2</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="N18" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1612,7 +1627,7 @@
       <c r="G19" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="42"/>
       <c r="J19" s="25" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1640,7 @@
       <c r="M19" s="27">
         <v>1</v>
       </c>
-      <c r="N19" s="49" t="s">
+      <c r="N19" s="47" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1642,10 +1657,10 @@
       <c r="F20" s="2">
         <v>4</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="42">
         <v>1</v>
       </c>
       <c r="J20" s="17"/>
@@ -1675,7 +1690,7 @@
       <c r="G21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
@@ -1693,7 +1708,7 @@
       <c r="G22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="44"/>
+      <c r="H22" s="42"/>
       <c r="P22">
         <v>65</v>
       </c>
@@ -1717,7 +1732,7 @@
       <c r="G23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="42"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
@@ -1737,11 +1752,19 @@
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="42">
         <v>1</v>
+      </c>
+      <c r="P24">
+        <f>P25</f>
+        <v>65</v>
+      </c>
+      <c r="Q24">
+        <f>P24-R35</f>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.25">
@@ -1760,7 +1783,15 @@
       <c r="G25" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="42"/>
+      <c r="P25">
+        <f>P26</f>
+        <v>65</v>
+      </c>
+      <c r="Q25">
+        <f>Q26+(R35-Q35)</f>
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="29" t="s">
@@ -1778,13 +1809,14 @@
       <c r="G26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="42"/>
       <c r="P26">
         <f>F27</f>
         <v>65</v>
       </c>
       <c r="Q26">
-        <v>52</v>
+        <f>P26-17</f>
+        <v>48</v>
       </c>
       <c r="R26">
         <v>39</v>
@@ -1829,80 +1861,65 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="P28">
-        <f>P26-R35</f>
-        <v>44</v>
-      </c>
-      <c r="Q28">
-        <f>P26-Q35</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P29">
-        <f>Q26-P28</f>
+    <row r="29" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="41"/>
+    </row>
+    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="38">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P30" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="R30" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="43"/>
-    </row>
-    <row r="31" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P31" s="39">
+      <c r="R31" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>4</v>
+      </c>
+      <c r="R32" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>2</v>
+      </c>
+      <c r="R33" s="39">
         <v>1</v>
       </c>
-      <c r="Q31" s="40">
-        <v>8</v>
-      </c>
-      <c r="R31" s="41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P32" s="42">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="41">
+    </row>
+    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>3</v>
+      </c>
+      <c r="R34" s="39">
         <v>4</v>
       </c>
-      <c r="R32" s="41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="41">
-        <v>2</v>
-      </c>
-      <c r="R33" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="16:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="40">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="41">
-        <v>3</v>
-      </c>
-      <c r="R34" s="41">
-        <v>4</v>
-      </c>
     </row>
     <row r="35" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P35" s="38" t="s">
+      <c r="P35" s="36" t="s">
         <v>70</v>
       </c>
       <c r="Q35">
